--- a/huanggang/20200208.xlsx
+++ b/huanggang/20200208.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="1800" windowWidth="25600" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>确诊病例</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
     <t>全市累计</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>自动求和</t>
+  </si>
+  <si>
+    <t>临床诊断病例</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -169,12 +169,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -489,17 +490,17 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -514,8 +515,8 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -531,7 +532,9 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -546,7 +549,9 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -561,7 +566,9 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -576,7 +583,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -591,14 +600,16 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -606,7 +617,9 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -621,7 +634,9 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -636,7 +651,9 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -651,7 +668,9 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -666,14 +685,16 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2">
         <v>32</v>
@@ -681,15 +702,17 @@
       <c r="D13" s="2">
         <v>7</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ref="B14:C14" si="0">SUM(B3:B12)</f>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
@@ -698,6 +721,9 @@
       <c r="D14" s="2">
         <f>SUM(D3:D12)</f>
         <v>7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
